--- a/bin/datacfg/Server.xlsx
+++ b/bin/datacfg/Server.xlsx
@@ -409,60 +409,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>master</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>erver</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_server</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>world</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>erver</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>gate_server</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -471,10 +417,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>log_server</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>misc_server</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -483,92 +425,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>master_s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>erver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_server_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>world_server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>game</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>erver</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>game_server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>gate_server_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -577,15 +433,51 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>log_server_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>misc_server_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_server_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>world_ss_server_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_cs_server_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_ss_server_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_cs_server_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_ss_server_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_ss_server</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_cs_server</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>world_ss_server</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_cs_server</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_ss_server</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1237,7 +1129,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1576,7 +1468,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>24</v>
@@ -1585,7 +1477,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>5000</v>
@@ -1617,7 +1509,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>5000</v>
@@ -1640,7 +1532,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>32</v>
@@ -1649,7 +1541,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>5000</v>
@@ -1672,7 +1564,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>34</v>
@@ -1681,7 +1573,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>5000</v>
@@ -1704,7 +1596,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>16</v>
@@ -1713,7 +1605,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>5000</v>
@@ -1736,7 +1628,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>39</v>
@@ -1745,7 +1637,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>5000</v>
@@ -1768,7 +1660,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>55</v>
@@ -1777,7 +1669,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>5000</v>
@@ -1800,7 +1692,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>56</v>
@@ -1809,7 +1701,7 @@
         <v>59</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>5000</v>
@@ -1832,7 +1724,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>57</v>
@@ -1841,7 +1733,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>5000</v>

--- a/bin/datacfg/Server.xlsx
+++ b/bin/datacfg/Server.xlsx
@@ -8,49 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Record1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Cache</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Force</t>
-  </si>
-  <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t>Desc</t>
   </si>
   <si>
     <r>
@@ -343,40 +312,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>Col</t>
-  </si>
-  <si>
-    <t>type1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>type2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>type3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>need_conn_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>type4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要连接的目标组件的类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -478,6 +413,26 @@
   </si>
   <si>
     <t>log_ss_server</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>separator##</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +440,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -505,7 +460,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -539,18 +494,10 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,20 +516,8 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -630,19 +565,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -676,19 +598,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -712,7 +621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,28 +631,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -761,28 +664,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1147,818 +1038,436 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>41</v>
+      <c r="J1" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>2</v>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="41.25" thickBot="1">
+      <c r="A4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="15" thickBot="1">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>21001</v>
+      </c>
+      <c r="J6">
+        <v>31001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1">
-      <c r="A5" s="6" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11">
+        <v>14001</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="11">
+        <v>22001</v>
+      </c>
+      <c r="J7" s="11">
+        <v>32001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>23001</v>
+      </c>
+      <c r="J8">
+        <v>33001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>16001</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>24001</v>
+      </c>
+      <c r="J9">
+        <v>34001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="40.5">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>42</v>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>15001</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>25001</v>
+      </c>
+      <c r="J10">
+        <v>35001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>76</v>
+      <c r="A11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E11">
         <v>5000</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11">
         <v>-1</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11">
-        <v>21001</v>
-      </c>
-      <c r="J11">
-        <v>31001</v>
+      <c r="H11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="11">
+        <v>26001</v>
+      </c>
+      <c r="J11" s="11">
+        <v>36001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>77</v>
+      <c r="A12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="E12">
         <v>5000</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="13">
-        <v>14001</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="13">
-        <v>22001</v>
-      </c>
-      <c r="J12" s="13">
-        <v>32001</v>
+      <c r="F12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="11">
+        <v>27001</v>
+      </c>
+      <c r="J12" s="11">
+        <v>37001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>78</v>
+      <c r="A13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E13">
         <v>5000</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11">
         <v>-1</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13">
-        <v>23001</v>
-      </c>
-      <c r="J13">
-        <v>33001</v>
+      <c r="H13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="11">
+        <v>28001</v>
+      </c>
+      <c r="J13" s="11">
+        <v>38001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>79</v>
+      <c r="A14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E14">
         <v>5000</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="11">
+        <v>19001</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G14">
-        <v>16001</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14">
-        <v>24001</v>
-      </c>
-      <c r="J14">
-        <v>34001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15">
-        <v>5000</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>15001</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15">
-        <v>25001</v>
-      </c>
-      <c r="J15">
-        <v>35001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16">
-        <v>5000</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="13">
-        <v>26001</v>
-      </c>
-      <c r="J16" s="13">
-        <v>36001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17">
-        <v>5000</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="13">
-        <v>27001</v>
-      </c>
-      <c r="J17" s="13">
-        <v>37001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18">
-        <v>5000</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="13">
-        <v>28001</v>
-      </c>
-      <c r="J18" s="13">
-        <v>38001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19">
-        <v>5000</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="13">
-        <v>19001</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="I14" s="11">
         <v>29001</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J14" s="11">
         <v>39001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 H2">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="23" customFormat="1">
-      <c r="A2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="20">
-        <v>256</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:23" s="23" customFormat="1">
-      <c r="A3" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="20">
-        <v>4</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B3 C13:D13">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="N2:N3 A11 B11 C11"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:M3 O2:AE3 A12 B12 C12">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G3">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>